--- a/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing entitled ``Innovation in Solar Fuels, Electricity Storage, and Advanced Materials.'' I recognize myself for an opening statement.    Good morning. Today, we will hear from a panel of experts on the status of America's basic research portfolio, which provides the foundation for development of solar fuels, electricity storage, and quantum computing systems. Hearings like today help remind us of the Science Committee's core focus: the basic research that provides the foundation of technology through breakthroughs.    We're going to discuss the science behind potentially groundbreaking technology today. But before America ever sees the deployment of a commercial solar fuel system or we move to quantum computing, a lot of discovery science must be accomplished. For the solar fuel process, also known as artificial photosynthesis, new materials and catalysts will need to be developed through research. If this research yields the right materials, scientists could create a system that could consolidate solar power and energy storage into one cohesive process. This would potentially remove the intermittency of solar energy and make it a reliable power source for chemical fuels production. That is a game-changer.    In the field of electricity storage research, there is a lot of excitement--or as I like to say there's electricity in the air--about more efficient batteries that could operate for longer durations under decreased charge times. But not enough people are asking just how could we design a battery system that moves more electrons at the atomic level, a key aspect to--excuse me--drastically increasing the efficiency or power of a battery. This transformational approach, known as multivalent ion intercalation, will use foundational study of electrochemistry to build a better battery from the ground up.    And then finally, there is quantum computing, which relies on a thorough understanding of quantum mechanics, a challenging concept that is a longer discussion for a different hearing. For today, I hope we can discuss how a quantum computing system could change the way computers operate. In order to achieve this kind of revolutionary improvement in computing, we're going to need foundational knowledge in the materials needed to build those systems also known as quantum materials.    I look forward to hearing from Dr. Broholm--have I got that right, Doctor----</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Broholm</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Broholm. Yes.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>412276</t>
   </si>
   <si>
-    <t>Alan Grayson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grayson. Sorry, would the Committee Chair like to precede me? Would the Committee Chair like to precede me?</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. I'd be happy to. I thank the gentleman. And let me thank the Chairman as well.    Today, we will examine American innovation in solar fuels, electricity storage, and advanced materials. The Department of Energy's Office of Science is the nation's lead federal agency for basic research in the physical sciences. This type of fundamental research allows scientists to make groundbreaking discoveries about everything from our universe to the smallest particle. It has led to transformative breakthroughs in energy science that will allow the private sector to develop innovative energy technologies.    Today's hearing will provide a status update on the Department's basic research in solar chemistry, energy storage, and advanced materials. Electricity storage is one of the next frontiers in energy research and development. Innovation in batteries could help bring affordable renewable energy to the market without costly subsidies or mandates.    By investing in the basic scientific research that will underpin and lead to new advanced battery technology, we can enable utilities and others to store and deliver power produced elsewhere. This will allow us to take advantage of energy from the diverse natural resources available across the country.    Another high-reward application of energy basic research is solar fuels, also known as artificial photosynthesis. Through the study of chemistry and materials science, researchers are developing systems that can use energy from sunlight to yield a range of chemical fuels.    Our last topic for today's hearing is advanced materials research. By examining substances at the atomic level, researchers can develop materials with the exact qualities necessary for an application, like thickness, strength, or heat resistance. These new materials could provide the capability for quantum computing systems that will fundamentally change the way we move and process data.    Basic scientific research like the work funded by DOE's Office of Science requires a long-term commitment. While this groundbreaking science can eventually support the development of new advanced energy technologies by the private sector, Congress must ensure limited federal dollars are spent wisely and efficiently. Federal research and development can build the foundation for the next major scientific breakthrough.    As we shape the future of the Department of Energy, our priority must be basic energy science and research that only the federal government has the resources and mission to pursue. This will enable the private sector, driven by the profit motive, to develop and move groundbreaking technology to the market across the energy spectrum, create jobs, and grow our economy.    Thank you, Mr. Chairman. I want to thank the Ranking Member for letting me precede him as well.</t>
   </si>
   <si>
@@ -109,18 +97,12 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Grayson.    I now recognize Dr. Lewis for five minutes to present his testimony. Dr. Lewis?</t>
   </si>
   <si>
-    <t>Lewis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lewis. Chairman Smith, Chairman Weber, Ranking Member Grayson, Members of the Subcommittee, thank you very much for the opportunity to discuss this very exciting and timely research area of artificial photosynthesis, which is the direct production of fuels from sunlight.    Artificial photosynthesis has the potential indeed to be a game-changing energy technology, cost-effectively producing fuels that are compatible with our existing infrastructure, and providing us with both energy and environmental security.    Artificial photosynthesis is inspired by plants except that it can be over 10 times more efficient than natural photosynthesis, avoiding the need to trade food for fuel and producing a fuel unlike lignocellulose that we can directly used to power our vehicles, to potentially make ammonia for fertilizer to feed people around the world, and for other uses that they may develop.    Solar fuels production would also solve massive grid-scale energy storage so when the sun doesn't shine at night, we can still provide power to whenever people need it and carbon-neutral transportation fuels, which are both critical gaps at present that research is needed to obtain a full carbon-neutral energy system.    Artificial photosynthesis does not look like a leaf, nor does it look like a solar panel. Instead, imagine a high-performance fabric that could be rolled out like artificial turf, supply that with sunlight, water, and perhaps other feedstocks from the air like nitrogen or carbon dioxide, and produce a fuel that gets wicked out into drainage pipes and collected for use. It's that simple in principle.    Many approaches to solar fuels are being pursued. Some are taking biological molecules like the green pigment chlorophylls and using them coupled to manmade catalysts. Others use all inorganic materials like semiconductors at the nanoscale and couple them to catalysts like ones used in fuel cells. Still others use metal complexes as dyes and couple them to molecular catalysts.    Laboratories like mine at Caltech have already demonstrated functional solar fuels systems through advances in nanoscience that have enabled us to fabricate nanofibers of semiconductors that can absorb light and couple them to catalysts all in a piece of plastic. So we know this is possible, but we need to continue to innovate and perform fundamental research to make it practical.    A full system of solar fuels needs five components, two materials to absorb sunlight, one to capture the blue part of the rainbow, the other to capture the red part of the rainbow to make it very efficient. We need two catalysts, one to oxidize water from the air to provide electrons to make the reduced catalyst make the fuel that we want to harvest. We also need a membrane to separate those products to ensure that the system is safe and doesn't explode.    We actually have all of those pieces. What we don't have is all of those pieces all working together seamlessly in one system where they all are stable and mutually compatible. Research opportunities include the use of high-performance computation to design new catalysts, to design new semiconductors, and to do modeling and simulation to help us understand how to make the system work as a whole, not just the pieces.    Many approaches are useful, and many fuels could be produced. We might produce a liquid fuel directly. We might produce a gaseous fuel and then convert it to a liquid fuel. We might think about a solar refinery the way we have an oil refinery where in comes our solar crude and then we convert it to various fuels as the output using the stained chemical processes that we use today.    In closing, I also would like to make two points. One is that many other countries now have burgeoning efforts in solar fuels. There are large efforts starting in Korea, Japan, China, Sweden, Germany, and the EU. We should beneficially leverage those efforts. We're well-positioned to do that given our historical leadership in solar fuels in the United States.    The second point is that solar fuels is an intellectual challenge that stimulates our young scientists, our graduate students, our postdocs involving nanoscience, material science, and fundamental research and energy broadly to give us better options for energy technologies than the ones that we have now. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Lewis.    Dr. Scherson, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Scherson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Scherson. Thank you.    Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee, I thank you for the opportunity to testify in today's hearing on innovation in solar fuels, electricity storage----</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Broholm.    Dr. Hallinan, you're recognized for five minutes.</t>
   </si>
   <si>
-    <t>Hallinan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hallinan. Good morning. Thank you for the opportunity to testify in today's hearing.    I'm here to speak to the importance of the Department of Energy's national light sources to research and to the technological challenges of the nation. I will also briefly address the impact of the proposed upgrades on research capabilities and U.S. scientific competitiveness. I thank the Committee for its long-standing and robust support of national light sources and energy research.    Synchrotron light sources are large-scale facilities. These clearly are not possible--practical for individual academic or industrial labs, let alone at home. However, they enable high-impact research that would not be possible otherwise, and they advance our scientific understanding of matter across length scales from the atomic to that which we can see with our own eyes. They provide insight into dynamics from ultrafast making and breaking of chemical bonds to structural relaxations that take longer than a year. They allow us to map in three dimensions the composition of materials that are poised to address energy and water needs of the country and the world.    So my personal experience with synchrotron light sources began during my postdoctoral fellowship at Lawrence Berkeley National Laboratory where I used four of the beam lines of the Advanced Light Source, and I worked with beam line scientists there. Now as an Assistant Professor at Florida State University, my group continues to collaborate with scientists at Berkeley Lab, but we also use, due to uniquenesses, some beam lines at the Advanced Photon Source of Argonne National Lab. FSU, Florida State University, recognizes the value of the travel to do this research, and they support it.    So this schematic that you see on the monitors I'm going to use just to explain to you briefly how the synchrotron light source actually works. So electrons are accelerated to near the speed of light around this ring, and in order to get them to curve around the ring, magnets are used. And when the magnets curve the electrons, x-rays are released tangentially, and you can see those x-rays then go to experiment stations. And there are many experiment stations located all around this ring. So they are--and there are many different types of experiments that can be done with these x-rays.    So you can categorize those experiments into three main types, and that's scattering, microscopy, and spectroscopy. So with scattering, x-ray scattering allows us to do is to look at both length and time scales of a very wide range of length and time scales of complex materials. Microscopy allows us to look inside materials so we can get inside something you couldn't see inside of with optical light and very small length scales and we can see the composition in there. And then spectroscopy specifically gives us the composition of materials. So, for example, we can watch the chemical changes that occur as we charge and discharge a battery that occur in the electrode, for example.    So just some statistics about these user facilities, there are many thousands of researchers that access the light sources across the nation each year at no charge, but this access is based on a competitive process. And the competitive process is to ensure that sound and impactful science is being conducted. The researchers come from a wide range of fields and generate thousands of research publications each year, contributing significantly to the nation's innovation-based economy.    And the most exciting thing to me is that these synchrotron light sources enable numerous scientific discoveries that wouldn't be practical without the facilities. And this practical uniqueness of each facility is the primary reason that they continue to be an integral part of my research program.    So I'll mention two areas of my personal research that they impact. So the first is safer, longer-lasting batteries. With batteries, we could increase dramatically the efficiency of our transportation. These electric vehicles are much more efficient than internal combustion engines. But commercial lithium-ion batteries now are not inherently safe. They have a flammable liquid electrolyte. There are engineering controls to protect against that, but they're not inherently safe, so that's why we're interested in polymer electrolytes. And these polymer electrolytes can not only enable safer batteries but they're compatible with some advanced electrode materials. But their dynamics are somewhat limited, and so we're studying the dynamics and the structure of polymer electrolytes for batteries.    The other area that I'm really interested I'm just going to touch on for a moment is energy-efficient water generation. So polymer electrolytes, polymers with charge in them are actually promising materials for generating more energy-efficient water from desalination, for example. But in order to do that, the structure of the polymer is very important, and that structure is a function of the water content and the salt concentration in the polymer. So we're using these--some of these x-ray facilities to study the structure as a function of salt and water in these polymers.    So in closing, for those of you who have not had the opportunity to visit one of these facilities, I would like to impress upon you the scale. So as you saw in that schematic, these things can be the size of a baseball field or even larger than the size of a whole baseball stadium depending on the facility, and they have hundreds of personnel, highly trained personnel, who work as a team to keep these things operating consistently and safely. There are a lot of safety concerns.    So this was really inspiring to me to see this many people working together on science. And I think it's a testament to what we have achieved, but new opportunities do await with the most recent synchrotron breakthroughs, and I encourage you to continue to robustly support the operating budgets of these facilities, as well as the proposed upgrades.    I thank you for your time, and I'm happy to answer any questions you might have.</t>
   </si>
   <si>
@@ -187,9 +166,6 @@
     <t>412579</t>
   </si>
   <si>
-    <t>Marc A. Veasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Veasey. Well, thank you very much.    And I wanted to ask some questions about energy storage for Dr. Hallinan and Dr. Scherson. I know that you're both working on innovations in electrical energy storage. I wanted to know if you could speak about your research and how it may lead to breakthroughs in developing new battery technologies.</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Speaker.    Dr. Lewis, you pointed out that your lab has demonstrated a functional solar fuel system. Can you elaborate on the fundamental chemistry and materials research needed to discover new molecules and materials and why that research is needed if you have already demonstrated at least one version of a solar fuel system?</t>
   </si>
   <si>
@@ -364,9 +337,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Well, you only get one landing if you make them out of feathers.    Dr. Lewis, thanks for coming. I appreciate you being here. You mentioned that artificial photosynthesis could benefit from modeling and simulation using high-performance computation systems. Is that something that the research community has begun to discuss with DOE?</t>
   </si>
   <si>
@@ -394,9 +364,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you very much, Mr. Chairman. Thank you very much for stalling there for a second. I was at another hearing. I just finished my questioning there, so I thank the witnesses for being here today.    And this may be a little bit of a repeat and that's what we're trying to avoid here, but I wanted to make sure that I directly had you address some of these things. Dr. Hallinan, the Basic Energy Sciences Advisory Committee, BESAC, recently released a report detailing which BES upgrade proposals should be prioritized, and I was pleased that BESAC recommended beginning construction on the Advanced Photon Source at Argonne National Lab, which is located in my district.    It's my understanding that your research has relied on APS, so could you talk a bit about your work that uses the APS and how upgrading it would advance both your research in the field of high-energy light source research in general?</t>
   </si>
   <si>
@@ -419,9 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Lipinski.    The Chair now recognizes Mark Takano from California.</t>
-  </si>
-  <si>
-    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Well, I'd like to thank the Chairman of the Energy Subcommittee for allowing me to be here today due to my specific interest in this sector, so I really appreciate that, Mr. Chairman.    I am co-Chair of the Battery Energy Storage Caucus and have a particular interest in energy storage and what we can do as policymakers to support and spur innovation in this industry.    California is making large investments in energy storage, and in my district at the University of California Riverside at the Center for Environmental Research and Technology they are working on the local--they're working with the local utility to integrate battery storage, as well as combining it with electric transportation.    We have heard from scientists and policymakers alike that there's often a false boundary between basic and applied science. To some, supporting basic research is an important role of government, while applied research should be left to the private sector. Yet this idea that there is a line that neatly divides the two separate levels of research is not realistic, and it goes against our general understanding of scientific discovery and innovation. Would you agree with this characterization, this last characterization? And I want to ask that question first and if you can briefly just address that, each one of you.</t>
@@ -979,11 +943,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1003,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1031,11 +991,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1057,11 +1015,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1081,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1107,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1135,11 +1087,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1159,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1187,11 +1135,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1211,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1239,11 +1183,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1263,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1291,11 +1231,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1315,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1343,11 +1279,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1367,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1395,11 +1327,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1419,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1447,11 +1375,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1471,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1499,11 +1423,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1523,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1551,11 +1471,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1575,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1603,11 +1519,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1627,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1655,11 +1567,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1679,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1707,11 +1615,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1731,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1759,11 +1663,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1783,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1811,11 +1711,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1835,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1863,11 +1759,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1887,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1913,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1939,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1965,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1991,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2017,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2043,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2069,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>57</v>
-      </c>
-      <c r="H44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2097,11 +1975,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2121,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2149,11 +2023,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2173,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2199,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2225,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2251,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2277,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G52" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2303,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2329,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2355,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2381,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
         <v>70</v>
-      </c>
-      <c r="H56" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2409,11 +2263,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2433,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2459,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2485,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2511,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2537,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" t="s">
-        <v>70</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2565,11 +2407,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2589,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2615,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2641,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2667,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2693,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2719,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2745,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2771,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2797,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2823,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2849,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2875,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2901,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2927,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2953,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2979,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3005,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3033,11 +2839,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3057,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3085,11 +2887,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3109,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3137,11 +2935,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3161,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3189,11 +2983,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3213,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3241,11 +3031,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3265,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3293,11 +3079,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3317,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3343,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3369,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
-      </c>
-      <c r="G94" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3395,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3421,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>115</v>
-      </c>
-      <c r="G96" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3447,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3473,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>115</v>
-      </c>
-      <c r="G98" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3501,11 +3271,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3525,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3551,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3577,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3603,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3629,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3655,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3681,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3709,11 +3463,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3733,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3759,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3785,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3811,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3837,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3863,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3889,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3915,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3941,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3969,11 +3703,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3993,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4019,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4045,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
         <v>135</v>
-      </c>
-      <c r="H120" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4071,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4097,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4123,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4149,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4175,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4201,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>135</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4229,11 +3943,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4253,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4281,11 +3991,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4305,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4333,11 +4039,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4357,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4385,11 +4087,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4409,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4437,11 +4135,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4461,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4489,11 +4183,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4513,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4541,11 +4231,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4565,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4593,11 +4279,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4617,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4645,11 +4327,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4669,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4697,11 +4375,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4721,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4749,11 +4423,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4773,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4801,11 +4471,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4825,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4853,11 +4519,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4877,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4905,11 +4567,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4929,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4957,11 +4615,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4981,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>43</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5009,11 +4663,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5033,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5059,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5085,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5111,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5137,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5165,11 +4807,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Weber. The Subcommittee on Energy will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    Welcome to today's hearing entitled ``Innovation in Solar Fuels, Electricity Storage, and Advanced Materials.'' I recognize myself for an opening statement.    Good morning. Today, we will hear from a panel of experts on the status of America's basic research portfolio, which provides the foundation for development of solar fuels, electricity storage, and quantum computing systems. Hearings like today help remind us of the Science Committee's core focus: the basic research that provides the foundation of technology through breakthroughs.    We're going to discuss the science behind potentially groundbreaking technology today. But before America ever sees the deployment of a commercial solar fuel system or we move to quantum computing, a lot of discovery science must be accomplished. For the solar fuel process, also known as artificial photosynthesis, new materials and catalysts will need to be developed through research. If this research yields the right materials, scientists could create a system that could consolidate solar power and energy storage into one cohesive process. This would potentially remove the intermittency of solar energy and make it a reliable power source for chemical fuels production. That is a game-changer.    In the field of electricity storage research, there is a lot of excitement--or as I like to say there's electricity in the air--about more efficient batteries that could operate for longer durations under decreased charge times. But not enough people are asking just how could we design a battery system that moves more electrons at the atomic level, a key aspect to--excuse me--drastically increasing the efficiency or power of a battery. This transformational approach, known as multivalent ion intercalation, will use foundational study of electrochemistry to build a better battery from the ground up.    And then finally, there is quantum computing, which relies on a thorough understanding of quantum mechanics, a challenging concept that is a longer discussion for a different hearing. For today, I hope we can discuss how a quantum computing system could change the way computers operate. In order to achieve this kind of revolutionary improvement in computing, we're going to need foundational knowledge in the materials needed to build those systems also known as quantum materials.    I look forward to hearing from Dr. Broholm--have I got that right, Doctor----</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Broholm</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Broholm. Yes.</t>
   </si>
   <si>
@@ -70,12 +82,24 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Grayson</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Grayson. Sorry, would the Committee Chair like to precede me? Would the Committee Chair like to precede me?</t>
   </si>
   <si>
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. I'd be happy to. I thank the gentleman. And let me thank the Chairman as well.    Today, we will examine American innovation in solar fuels, electricity storage, and advanced materials. The Department of Energy's Office of Science is the nation's lead federal agency for basic research in the physical sciences. This type of fundamental research allows scientists to make groundbreaking discoveries about everything from our universe to the smallest particle. It has led to transformative breakthroughs in energy science that will allow the private sector to develop innovative energy technologies.    Today's hearing will provide a status update on the Department's basic research in solar chemistry, energy storage, and advanced materials. Electricity storage is one of the next frontiers in energy research and development. Innovation in batteries could help bring affordable renewable energy to the market without costly subsidies or mandates.    By investing in the basic scientific research that will underpin and lead to new advanced battery technology, we can enable utilities and others to store and deliver power produced elsewhere. This will allow us to take advantage of energy from the diverse natural resources available across the country.    Another high-reward application of energy basic research is solar fuels, also known as artificial photosynthesis. Through the study of chemistry and materials science, researchers are developing systems that can use energy from sunlight to yield a range of chemical fuels.    Our last topic for today's hearing is advanced materials research. By examining substances at the atomic level, researchers can develop materials with the exact qualities necessary for an application, like thickness, strength, or heat resistance. These new materials could provide the capability for quantum computing systems that will fundamentally change the way we move and process data.    Basic scientific research like the work funded by DOE's Office of Science requires a long-term commitment. While this groundbreaking science can eventually support the development of new advanced energy technologies by the private sector, Congress must ensure limited federal dollars are spent wisely and efficiently. Federal research and development can build the foundation for the next major scientific breakthrough.    As we shape the future of the Department of Energy, our priority must be basic energy science and research that only the federal government has the resources and mission to pursue. This will enable the private sector, driven by the profit motive, to develop and move groundbreaking technology to the market across the energy spectrum, create jobs, and grow our economy.    Thank you, Mr. Chairman. I want to thank the Ranking Member for letting me precede him as well.</t>
   </si>
   <si>
@@ -97,12 +121,18 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Grayson.    I now recognize Dr. Lewis for five minutes to present his testimony. Dr. Lewis?</t>
   </si>
   <si>
+    <t>Lewis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lewis. Chairman Smith, Chairman Weber, Ranking Member Grayson, Members of the Subcommittee, thank you very much for the opportunity to discuss this very exciting and timely research area of artificial photosynthesis, which is the direct production of fuels from sunlight.    Artificial photosynthesis has the potential indeed to be a game-changing energy technology, cost-effectively producing fuels that are compatible with our existing infrastructure, and providing us with both energy and environmental security.    Artificial photosynthesis is inspired by plants except that it can be over 10 times more efficient than natural photosynthesis, avoiding the need to trade food for fuel and producing a fuel unlike lignocellulose that we can directly used to power our vehicles, to potentially make ammonia for fertilizer to feed people around the world, and for other uses that they may develop.    Solar fuels production would also solve massive grid-scale energy storage so when the sun doesn't shine at night, we can still provide power to whenever people need it and carbon-neutral transportation fuels, which are both critical gaps at present that research is needed to obtain a full carbon-neutral energy system.    Artificial photosynthesis does not look like a leaf, nor does it look like a solar panel. Instead, imagine a high-performance fabric that could be rolled out like artificial turf, supply that with sunlight, water, and perhaps other feedstocks from the air like nitrogen or carbon dioxide, and produce a fuel that gets wicked out into drainage pipes and collected for use. It's that simple in principle.    Many approaches to solar fuels are being pursued. Some are taking biological molecules like the green pigment chlorophylls and using them coupled to manmade catalysts. Others use all inorganic materials like semiconductors at the nanoscale and couple them to catalysts like ones used in fuel cells. Still others use metal complexes as dyes and couple them to molecular catalysts.    Laboratories like mine at Caltech have already demonstrated functional solar fuels systems through advances in nanoscience that have enabled us to fabricate nanofibers of semiconductors that can absorb light and couple them to catalysts all in a piece of plastic. So we know this is possible, but we need to continue to innovate and perform fundamental research to make it practical.    A full system of solar fuels needs five components, two materials to absorb sunlight, one to capture the blue part of the rainbow, the other to capture the red part of the rainbow to make it very efficient. We need two catalysts, one to oxidize water from the air to provide electrons to make the reduced catalyst make the fuel that we want to harvest. We also need a membrane to separate those products to ensure that the system is safe and doesn't explode.    We actually have all of those pieces. What we don't have is all of those pieces all working together seamlessly in one system where they all are stable and mutually compatible. Research opportunities include the use of high-performance computation to design new catalysts, to design new semiconductors, and to do modeling and simulation to help us understand how to make the system work as a whole, not just the pieces.    Many approaches are useful, and many fuels could be produced. We might produce a liquid fuel directly. We might produce a gaseous fuel and then convert it to a liquid fuel. We might think about a solar refinery the way we have an oil refinery where in comes our solar crude and then we convert it to various fuels as the output using the stained chemical processes that we use today.    In closing, I also would like to make two points. One is that many other countries now have burgeoning efforts in solar fuels. There are large efforts starting in Korea, Japan, China, Sweden, Germany, and the EU. We should beneficially leverage those efforts. We're well-positioned to do that given our historical leadership in solar fuels in the United States.    The second point is that solar fuels is an intellectual challenge that stimulates our young scientists, our graduate students, our postdocs involving nanoscience, material science, and fundamental research and energy broadly to give us better options for energy technologies than the ones that we have now. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Lewis.    Dr. Scherson, you're recognized for five minutes.</t>
   </si>
   <si>
+    <t>Scherson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Scherson. Thank you.    Chairman Smith, Chairman Weber, Ranking Member Grayson, and Members of the Subcommittee, I thank you for the opportunity to testify in today's hearing on innovation in solar fuels, electricity storage----</t>
   </si>
   <si>
@@ -127,6 +157,9 @@
     <t xml:space="preserve">    Chairman Weber. Thank you, Dr. Broholm.    Dr. Hallinan, you're recognized for five minutes.</t>
   </si>
   <si>
+    <t>Hallinan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hallinan. Good morning. Thank you for the opportunity to testify in today's hearing.    I'm here to speak to the importance of the Department of Energy's national light sources to research and to the technological challenges of the nation. I will also briefly address the impact of the proposed upgrades on research capabilities and U.S. scientific competitiveness. I thank the Committee for its long-standing and robust support of national light sources and energy research.    Synchrotron light sources are large-scale facilities. These clearly are not possible--practical for individual academic or industrial labs, let alone at home. However, they enable high-impact research that would not be possible otherwise, and they advance our scientific understanding of matter across length scales from the atomic to that which we can see with our own eyes. They provide insight into dynamics from ultrafast making and breaking of chemical bonds to structural relaxations that take longer than a year. They allow us to map in three dimensions the composition of materials that are poised to address energy and water needs of the country and the world.    So my personal experience with synchrotron light sources began during my postdoctoral fellowship at Lawrence Berkeley National Laboratory where I used four of the beam lines of the Advanced Light Source, and I worked with beam line scientists there. Now as an Assistant Professor at Florida State University, my group continues to collaborate with scientists at Berkeley Lab, but we also use, due to uniquenesses, some beam lines at the Advanced Photon Source of Argonne National Lab. FSU, Florida State University, recognizes the value of the travel to do this research, and they support it.    So this schematic that you see on the monitors I'm going to use just to explain to you briefly how the synchrotron light source actually works. So electrons are accelerated to near the speed of light around this ring, and in order to get them to curve around the ring, magnets are used. And when the magnets curve the electrons, x-rays are released tangentially, and you can see those x-rays then go to experiment stations. And there are many experiment stations located all around this ring. So they are--and there are many different types of experiments that can be done with these x-rays.    So you can categorize those experiments into three main types, and that's scattering, microscopy, and spectroscopy. So with scattering, x-ray scattering allows us to do is to look at both length and time scales of a very wide range of length and time scales of complex materials. Microscopy allows us to look inside materials so we can get inside something you couldn't see inside of with optical light and very small length scales and we can see the composition in there. And then spectroscopy specifically gives us the composition of materials. So, for example, we can watch the chemical changes that occur as we charge and discharge a battery that occur in the electrode, for example.    So just some statistics about these user facilities, there are many thousands of researchers that access the light sources across the nation each year at no charge, but this access is based on a competitive process. And the competitive process is to ensure that sound and impactful science is being conducted. The researchers come from a wide range of fields and generate thousands of research publications each year, contributing significantly to the nation's innovation-based economy.    And the most exciting thing to me is that these synchrotron light sources enable numerous scientific discoveries that wouldn't be practical without the facilities. And this practical uniqueness of each facility is the primary reason that they continue to be an integral part of my research program.    So I'll mention two areas of my personal research that they impact. So the first is safer, longer-lasting batteries. With batteries, we could increase dramatically the efficiency of our transportation. These electric vehicles are much more efficient than internal combustion engines. But commercial lithium-ion batteries now are not inherently safe. They have a flammable liquid electrolyte. There are engineering controls to protect against that, but they're not inherently safe, so that's why we're interested in polymer electrolytes. And these polymer electrolytes can not only enable safer batteries but they're compatible with some advanced electrode materials. But their dynamics are somewhat limited, and so we're studying the dynamics and the structure of polymer electrolytes for batteries.    The other area that I'm really interested I'm just going to touch on for a moment is energy-efficient water generation. So polymer electrolytes, polymers with charge in them are actually promising materials for generating more energy-efficient water from desalination, for example. But in order to do that, the structure of the polymer is very important, and that structure is a function of the water content and the salt concentration in the polymer. So we're using these--some of these x-ray facilities to study the structure as a function of salt and water in these polymers.    So in closing, for those of you who have not had the opportunity to visit one of these facilities, I would like to impress upon you the scale. So as you saw in that schematic, these things can be the size of a baseball field or even larger than the size of a whole baseball stadium depending on the facility, and they have hundreds of personnel, highly trained personnel, who work as a team to keep these things operating consistently and safely. There are a lot of safety concerns.    So this was really inspiring to me to see this many people working together on science. And I think it's a testament to what we have achieved, but new opportunities do await with the most recent synchrotron breakthroughs, and I encourage you to continue to robustly support the operating budgets of these facilities, as well as the proposed upgrades.    I thank you for your time, and I'm happy to answer any questions you might have.</t>
   </si>
   <si>
@@ -166,6 +199,12 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Veasey. Well, thank you very much.    And I wanted to ask some questions about energy storage for Dr. Hallinan and Dr. Scherson. I know that you're both working on innovations in electrical energy storage. I wanted to know if you could speak about your research and how it may lead to breakthroughs in developing new battery technologies.</t>
   </si>
   <si>
@@ -202,6 +241,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Speaker.    Dr. Lewis, you pointed out that your lab has demonstrated a functional solar fuel system. Can you elaborate on the fundamental chemistry and materials research needed to discover new molecules and materials and why that research is needed if you have already demonstrated at least one version of a solar fuel system?</t>
   </si>
   <si>
@@ -337,6 +382,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Well, you only get one landing if you make them out of feathers.    Dr. Lewis, thanks for coming. I appreciate you being here. You mentioned that artificial photosynthesis could benefit from modeling and simulation using high-performance computation systems. Is that something that the research community has begun to discuss with DOE?</t>
   </si>
   <si>
@@ -364,6 +415,12 @@
     <t>400630</t>
   </si>
   <si>
+    <t>Lipinski</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you very much, Mr. Chairman. Thank you very much for stalling there for a second. I was at another hearing. I just finished my questioning there, so I thank the witnesses for being here today.    And this may be a little bit of a repeat and that's what we're trying to avoid here, but I wanted to make sure that I directly had you address some of these things. Dr. Hallinan, the Basic Energy Sciences Advisory Committee, BESAC, recently released a report detailing which BES upgrade proposals should be prioritized, and I was pleased that BESAC recommended beginning construction on the Advanced Photon Source at Argonne National Lab, which is located in my district.    It's my understanding that your research has relied on APS, so could you talk a bit about your work that uses the APS and how upgrading it would advance both your research in the field of high-energy light source research in general?</t>
   </si>
   <si>
@@ -386,6 +443,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Chairman Weber. Thank you, Mr. Lipinski.    The Chair now recognizes Mark Takano from California.</t>
+  </si>
+  <si>
+    <t>Takano</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Takano. Well, I'd like to thank the Chairman of the Energy Subcommittee for allowing me to be here today due to my specific interest in this sector, so I really appreciate that, Mr. Chairman.    I am co-Chair of the Battery Energy Storage Caucus and have a particular interest in energy storage and what we can do as policymakers to support and spur innovation in this industry.    California is making large investments in energy storage, and in my district at the University of California Riverside at the Center for Environmental Research and Technology they are working on the local--they're working with the local utility to integrate battery storage, as well as combining it with electric transportation.    We have heard from scientists and policymakers alike that there's often a false boundary between basic and applied science. To some, supporting basic research is an important role of government, while applied research should be left to the private sector. Yet this idea that there is a line that neatly divides the two separate levels of research is not realistic, and it goes against our general understanding of scientific discovery and innovation. Would you agree with this characterization, this last characterization? And I want to ask that question first and if you can briefly just address that, each one of you.</t>
@@ -893,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,7 +961,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,3893 +983,4552 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+      <c r="H13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G39" t="s">
+        <v>61</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G41" t="s">
+        <v>61</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>49</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s">
+        <v>61</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>75</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G54" t="s">
+        <v>75</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G60" t="s">
+        <v>75</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
       <c r="H62" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
       <c r="H70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G92" t="s">
+        <v>122</v>
+      </c>
       <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>106</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G94" t="s">
+        <v>122</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>47</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G96" t="s">
+        <v>122</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>106</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G98" t="s">
+        <v>122</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>115</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G102" t="s">
+        <v>133</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>115</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G104" t="s">
+        <v>133</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>115</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G106" t="s">
+        <v>133</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>143</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>13</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>143</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
+        <v>143</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>143</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>143</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>143</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>143</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G121" t="s">
+        <v>38</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>143</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>143</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>143</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>35</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>47</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>47</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>47</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>22</v>
+      </c>
       <c r="H158" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>22</v>
+      </c>
       <c r="H160" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>22</v>
+      </c>
       <c r="H162" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>176</v>
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20879.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Weber</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>412276</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Grayson</t>
   </si>
   <si>
@@ -94,6 +103,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -199,6 +211,9 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Veasey</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
   </si>
   <si>
     <t>412614</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Knight</t>
@@ -953,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +979,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,4549 +1004,4884 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
         <v>16</v>
       </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>51</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>35</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G72" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>35</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>39</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>35</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>39</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>35</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>39</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>35</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s">
-        <v>35</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J92" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G94" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s">
-        <v>47</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G96" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>39</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G98" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>47</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>47</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>51</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>42</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G106" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>140</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s">
-        <v>143</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>149</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>35</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>39</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s">
-        <v>143</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>42</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>143</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s">
-        <v>17</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>143</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>149</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>51</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>143</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>149</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>143</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>149</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s">
-        <v>35</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>39</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>143</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>149</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s">
-        <v>38</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>42</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>143</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>149</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>143</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>149</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s">
-        <v>47</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>51</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>143</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>149</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>19</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>19</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>19</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>17</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>19</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>17</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s">
-        <v>17</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>17</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>39</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>39</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s">
-        <v>35</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s">
-        <v>17</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" t="s">
-        <v>47</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>51</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s">
-        <v>47</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>51</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s">
-        <v>47</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>51</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H158" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s">
-        <v>17</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G160" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I160" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J160" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s">
-        <v>17</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J162" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>196</v>
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
